--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TherataWork_Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TherataWork_Lab\WorkLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EAEB7F-4C2D-4E5E-BFE1-C548A3ABD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F752A357-4A57-4202-A20C-5BBD1B515CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2655" windowWidth="21915" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>同益</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>同益的中微的移植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华天成，在二代板，实现级联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/05/07 - 分体增加ID26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞姆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,22 +403,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="25.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="33.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,39 +429,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2">
+        <v>45426</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45419</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D6" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TherataWork_Lab\WorkLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F752A357-4A57-4202-A20C-5BBD1B515CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0994B74F-7FB8-421D-9AE3-8D8E2CF99193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,11 +67,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024/05/07 - 分体增加ID26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>瑞姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/05/14 - 分体增加ID26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +406,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -429,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -438,7 +438,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2">

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TherataWork_Lab\WorkLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0994B74F-7FB8-421D-9AE3-8D8E2CF99193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01607B78-7F6D-470C-A9C1-88E29F677898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="2505" windowWidth="21915" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -450,6 +450,9 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
+      <c r="B3" s="2">
+        <v>45432</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TherataWork_Lab\WorkLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01607B78-7F6D-470C-A9C1-88E29F677898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C652437-3A33-43A9-B814-B5DFAD2BE4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="2505" windowWidth="21915" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1245" windowWidth="21915" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -450,9 +450,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="2">
-        <v>45432</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TherataWork_Lab\WorkLog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\WorkLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01607B78-7F6D-470C-A9C1-88E29F677898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D98A876-6381-4055-B06E-E51DAF49CAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="2505" windowWidth="21915" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>同益</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
   </si>
   <si>
     <t>瑞姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024/05/14 - 分体增加ID26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,19 +402,19 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="33.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="33.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.44140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,11 +431,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
         <v>45426</v>
@@ -448,16 +442,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2">
-        <v>45432</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45419</v>
       </c>
@@ -465,17 +457,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
